--- a/TR/R_LEARNING.xlsx
+++ b/TR/R_LEARNING.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\GitHub\Flappy-bird_TR\TR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73261AA-82B5-4747-8E58-4ABA199C05D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4C3F5-320C-4D23-87C3-DF1A81295BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="18570" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>R2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +345,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.4768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.62070000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.49609999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.33639999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.74870000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.34179999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.2157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.3034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.57030000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.81810000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.70930000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.70540000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.79630000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.77329999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.82920000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.16189999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.32440000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.70169999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.45250000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.76129999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.56840000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.85909999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.93169999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.90039999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.96789999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.56179999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.4803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.17560000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.74019999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.97389999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.77059999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.89259999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.64059999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.80369999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.72330000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.8327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.92610000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.95069999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.81869999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.84719999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.75370000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.71089999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.80549999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.92290000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.84360000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.85870000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.76029999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.87960000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.59250000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.80459999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.68489999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.92530000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.91839999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.94530000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.79390000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.92559999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.95040000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.72330000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.82720000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.59230000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.72489999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.92810000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.7319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.67569999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TR/R_LEARNING.xlsx
+++ b/TR/R_LEARNING.xlsx
@@ -1,40 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\GitHub\Flappy-bird_TR\TR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRABAJO DE RECERCA\Treball-de-Recerca-IA\TR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF4C3F5-320C-4D23-87C3-DF1A81295BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E599D11-4B94-447B-836E-F1A49D581270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="18570" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$2:$A$86</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$A$2:$A$86</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$A$2:$A$86</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>Maximo:</t>
+  </si>
+  <si>
+    <t>Minimo:</t>
+  </si>
+  <si>
+    <t>Mitjana:</t>
+  </si>
+  <si>
+    <t>Moda:</t>
+  </si>
+  <si>
+    <t>Mediana:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +73,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +104,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +142,698 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Values</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Values</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{21FF1BF0-8723-4A47-B601-303DFBD482A7}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81963B8-3522-E8EA-18CE-DF25DA609EB9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2733675" y="190500"/>
+              <a:ext cx="5724525" cy="4038600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ca-ES" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,90 +1099,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.4768</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>MAX(A2:A86)</f>
+        <v>0.97389999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.75249999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MIN(A2:A86)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.86960000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <f>AVERAGE(A2:A86)</f>
+        <v>0.73110588235294138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MODE(A2:A86)</f>
+        <v>0.72330000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.62070000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <f>MEDIAN(A2:A86)</f>
+        <v>0.77329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.49609999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.33639999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.74870000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.34179999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2157</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.3034</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.57030000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.81810000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.70930000000000004</v>
       </c>
@@ -785,5 +1577,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>